--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1980.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1980.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"import" + 0.001*"exchange" + 0.001*"foreign" + 0.001*"bank" + 0.001*"ing" + 0.001*"per" + 0.001*"account" + 0.001*"cent" + 0.001*"export" + 0.001*"may"</t>
-  </si>
-  <si>
-    <t>0.005*"foreign" + 0.004*"import" + 0.004*"may" + 0.003*"exchange" + 0.003*"currency" + 0.003*"export" + 0.003*"per" + 0.003*"bank" + 0.002*"account" + 0.002*"ing"</t>
-  </si>
-  <si>
-    <t>0.017*"import" + 0.014*"exchange" + 0.014*"foreign" + 0.014*"bank" + 0.013*"may" + 0.012*"export" + 0.010*"currency" + 0.010*"per" + 0.008*"account" + 0.008*"ing"</t>
-  </si>
-  <si>
-    <t>0.018*"exchange" + 0.017*"foreign" + 0.013*"import" + 0.012*"bank" + 0.010*"may" + 0.010*"per" + 0.009*"account" + 0.008*"export" + 0.007*"ing" + 0.007*"rate"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.001*"bank" + 0.001*"exchange" + 0.001*"may" + 0.001*"export" + 0.001*"foreign" + 0.001*"currency" + 0.001*"per" + 0.001*"cent" + 0.001*"country"</t>
+    <t>0.067*"import" + 0.045*"per" + 0.044*"export" + 0.035*"cent" + 0.025*"gold" + 0.024*"license" + 0.014*"subject" + 0.013*"require" + 0.011*"tax" + 0.011*"certain"</t>
+  </si>
+  <si>
+    <t>0.022*"year" + 0.018*"import" + 0.016*"investment" + 0.014*"december" + 0.012*"good" + 0.012*"prohibit" + 0.011*"company" + 0.011*"south" + 0.011*"ing" + 0.010*"rhodesia"</t>
+  </si>
+  <si>
+    <t>0.040*"may" + 0.034*"foreign" + 0.030*"account" + 0.028*"bank" + 0.027*"currency" + 0.020*"payment" + 0.019*"resident" + 0.016*"must" + 0.016*"nonresident" + 0.015*"exchange"</t>
+  </si>
+  <si>
+    <t>0.055*"rate" + 0.041*"exchange" + 0.023*"u" + 0.018*"currency" + 0.017*"travel" + 0.016*"franc" + 0.015*"foreign" + 0.010*"market" + 0.010*"official" + 0.009*"system"</t>
+  </si>
+  <si>
+    <t>0.025*"bank" + 0.025*"ing" + 0.023*"ion" + 0.020*"exchange" + 0.018*"control" + 0.015*"fund" + 0.014*"approval" + 0.013*"monetary" + 0.013*"ly" + 0.012*"dollar"</t>
   </si>
 </sst>
 </file>
